--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogus\Documents\1-dersler\tez1\2.donem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1E6AC-23C6-4D56-A8EA-E9FDCA3D1055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="15765" yWindow="1995" windowWidth="15630" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>%magnitude</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; depth</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; timestamp</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; depth &amp; timestamp</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; lat &amp; lon</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; lat &amp; lon &amp; depth</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; lat &amp; lon &amp; timestamp</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; lat &amp; lon &amp; depth &amp; timestamp</t>
+  </si>
+  <si>
+    <t>Experiments</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +70,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9B9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,14 +126,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9B9B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +420,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="G4" s="2">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>41</v>
+      </c>
+      <c r="J5" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1">
+        <v>110</v>
+      </c>
+      <c r="F6">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>55</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>134</v>
+      </c>
+      <c r="G8" s="1">
+        <v>93</v>
+      </c>
+      <c r="H8" s="1">
+        <v>98</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogus\Documents\1-dersler\tez1\2.donem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\eartquake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1E6AC-23C6-4D56-A8EA-E9FDCA3D1055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BB00FB-ED87-49F0-88A8-BC5359284A51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15765" yWindow="1995" windowWidth="15630" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="10995" windowWidth="28755" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
   <si>
     <t>Magnitude</t>
   </si>
@@ -55,6 +55,429 @@
   </si>
   <si>
     <t>Experiments</t>
+  </si>
+  <si>
+    <t>Lat Lon</t>
+  </si>
+  <si>
+    <t>%lat &amp; lon</t>
+  </si>
+  <si>
+    <t>%lat &amp; lon &amp; magnitude</t>
+  </si>
+  <si>
+    <t>%lat &amp; lon &amp; depth</t>
+  </si>
+  <si>
+    <t>%lat &amp; lon &amp; magnitude &amp; depth</t>
+  </si>
+  <si>
+    <t>%lat &amp; lon &amp; magnitude &amp; timestamp</t>
+  </si>
+  <si>
+    <t>%lat &amp; lon &amp; depth &amp; timestamp</t>
+  </si>
+  <si>
+    <t>%lat &amp; lon &amp; magnitude &amp; depth &amp; timestamp</t>
+  </si>
+  <si>
+    <t>10+14</t>
+  </si>
+  <si>
+    <t>5+8</t>
+  </si>
+  <si>
+    <t>4+10</t>
+  </si>
+  <si>
+    <t>10+12</t>
+  </si>
+  <si>
+    <t>39+38</t>
+  </si>
+  <si>
+    <t>17+15</t>
+  </si>
+  <si>
+    <t>39+45</t>
+  </si>
+  <si>
+    <t>3+8</t>
+  </si>
+  <si>
+    <t>40+58</t>
+  </si>
+  <si>
+    <t>6+10</t>
+  </si>
+  <si>
+    <t>5+10</t>
+  </si>
+  <si>
+    <t>7+11</t>
+  </si>
+  <si>
+    <t>6+9</t>
+  </si>
+  <si>
+    <t>36+37</t>
+  </si>
+  <si>
+    <t>22+24</t>
+  </si>
+  <si>
+    <t>40+38</t>
+  </si>
+  <si>
+    <t>5+9</t>
+  </si>
+  <si>
+    <t>9+10</t>
+  </si>
+  <si>
+    <t>38+45</t>
+  </si>
+  <si>
+    <t>35+37</t>
+  </si>
+  <si>
+    <t>32+29</t>
+  </si>
+  <si>
+    <t>6+8</t>
+  </si>
+  <si>
+    <t>Magnitude Location</t>
+  </si>
+  <si>
+    <t>41+343</t>
+  </si>
+  <si>
+    <t>39+365</t>
+  </si>
+  <si>
+    <t>43+374</t>
+  </si>
+  <si>
+    <t>45+367</t>
+  </si>
+  <si>
+    <t>47+378</t>
+  </si>
+  <si>
+    <t>42+338</t>
+  </si>
+  <si>
+    <t>44+328</t>
+  </si>
+  <si>
+    <t>45+346</t>
+  </si>
+  <si>
+    <t>39+318</t>
+  </si>
+  <si>
+    <t>41+419</t>
+  </si>
+  <si>
+    <t>42+328</t>
+  </si>
+  <si>
+    <t>49+347</t>
+  </si>
+  <si>
+    <t>57+248</t>
+  </si>
+  <si>
+    <t>58+332</t>
+  </si>
+  <si>
+    <t>50+277</t>
+  </si>
+  <si>
+    <t>54+246</t>
+  </si>
+  <si>
+    <t>50+237</t>
+  </si>
+  <si>
+    <t>55+251</t>
+  </si>
+  <si>
+    <t>51+231</t>
+  </si>
+  <si>
+    <t>52+35</t>
+  </si>
+  <si>
+    <t>55+280</t>
+  </si>
+  <si>
+    <t>54+302</t>
+  </si>
+  <si>
+    <t>53+275</t>
+  </si>
+  <si>
+    <t>51+263</t>
+  </si>
+  <si>
+    <t>49+218</t>
+  </si>
+  <si>
+    <t>53+221</t>
+  </si>
+  <si>
+    <t>50+194</t>
+  </si>
+  <si>
+    <t>54+256</t>
+  </si>
+  <si>
+    <t>49+317</t>
+  </si>
+  <si>
+    <t>56+310</t>
+  </si>
+  <si>
+    <t>47+268</t>
+  </si>
+  <si>
+    <t>56+244</t>
+  </si>
+  <si>
+    <t>52+229</t>
+  </si>
+  <si>
+    <t>50+200</t>
+  </si>
+  <si>
+    <t>50+233</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>500 epoc</t>
+  </si>
+  <si>
+    <t>backward 20</t>
+  </si>
+  <si>
+    <t>backward 30</t>
+  </si>
+  <si>
+    <t>backward 50</t>
+  </si>
+  <si>
+    <t>backward 100</t>
+  </si>
+  <si>
+    <t>backward 40</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>69+326</t>
+  </si>
+  <si>
+    <t>56+292</t>
+  </si>
+  <si>
+    <t>57+269</t>
+  </si>
+  <si>
+    <t>51+243</t>
+  </si>
+  <si>
+    <t>72+415</t>
+  </si>
+  <si>
+    <t>54+299</t>
+  </si>
+  <si>
+    <t>56+248</t>
+  </si>
+  <si>
+    <t>53+216</t>
+  </si>
+  <si>
+    <t>83+428</t>
+  </si>
+  <si>
+    <t>51+279</t>
+  </si>
+  <si>
+    <t>56+240</t>
+  </si>
+  <si>
+    <t>52+242</t>
+  </si>
+  <si>
+    <t>59+364</t>
+  </si>
+  <si>
+    <t>53+279</t>
+  </si>
+  <si>
+    <t>62+241</t>
+  </si>
+  <si>
+    <t>50+206</t>
+  </si>
+  <si>
+    <t>71+322</t>
+  </si>
+  <si>
+    <t>51+265</t>
+  </si>
+  <si>
+    <t>58+260</t>
+  </si>
+  <si>
+    <t>59+238</t>
+  </si>
+  <si>
+    <t>77+351</t>
+  </si>
+  <si>
+    <t>63+270</t>
+  </si>
+  <si>
+    <t>62+247</t>
+  </si>
+  <si>
+    <t>49+211</t>
+  </si>
+  <si>
+    <t>53+377</t>
+  </si>
+  <si>
+    <t>53+289</t>
+  </si>
+  <si>
+    <t>57+292</t>
+  </si>
+  <si>
+    <t>51+249</t>
+  </si>
+  <si>
+    <t>73+356</t>
+  </si>
+  <si>
+    <t>57+260</t>
+  </si>
+  <si>
+    <t>58+251</t>
+  </si>
+  <si>
+    <t>56+321</t>
+  </si>
+  <si>
+    <t>52+266</t>
+  </si>
+  <si>
+    <t>61+262</t>
+  </si>
+  <si>
+    <t>58+237</t>
+  </si>
+  <si>
+    <t>69+377</t>
+  </si>
+  <si>
+    <t>54+239</t>
+  </si>
+  <si>
+    <t>71+334</t>
+  </si>
+  <si>
+    <t>48+253</t>
+  </si>
+  <si>
+    <t>BATCH 20</t>
+  </si>
+  <si>
+    <t>BATCH 50</t>
+  </si>
+  <si>
+    <t>BATCH 100</t>
+  </si>
+  <si>
+    <t>BATCH 100000</t>
+  </si>
+  <si>
+    <t>LEARN 0.1</t>
+  </si>
+  <si>
+    <t>LEARN 0.01</t>
+  </si>
+  <si>
+    <t>LEARN 0.001</t>
+  </si>
+  <si>
+    <t>LEARN 0.05</t>
+  </si>
+  <si>
+    <t>BACK 30</t>
+  </si>
+  <si>
+    <t>BACK 20</t>
+  </si>
+  <si>
+    <t>location 9</t>
+  </si>
+  <si>
+    <t>location 6</t>
+  </si>
+  <si>
+    <t>location 5</t>
+  </si>
+  <si>
+    <t>location 11</t>
+  </si>
+  <si>
+    <t>location 1</t>
+  </si>
+  <si>
+    <t>location 2</t>
+  </si>
+  <si>
+    <t>location 3</t>
+  </si>
+  <si>
+    <t>location 4</t>
+  </si>
+  <si>
+    <t>location 7</t>
+  </si>
+  <si>
+    <t>location 8</t>
+  </si>
+  <si>
+    <t>location 10</t>
+  </si>
+  <si>
+    <t>location 12</t>
+  </si>
+  <si>
+    <t>location 13</t>
+  </si>
+  <si>
+    <t>location 14</t>
+  </si>
+  <si>
+    <t>location 15</t>
+  </si>
+  <si>
+    <t>location 0</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; depth &amp; timestamp  BACK 20</t>
+  </si>
+  <si>
+    <t>%magnitude &amp; depth &amp; timestamp  BACK 30</t>
   </si>
 </sst>
 </file>
@@ -70,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +536,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -136,6 +577,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,19 +865,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:AP134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="I121" workbookViewId="0">
+      <selection activeCell="W134" sqref="W134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -447,21 +893,25 @@
         <v>4</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="6">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6">
-        <v>5</v>
-      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="T1" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -475,21 +925,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>3</v>
-      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -502,20 +956,44 @@
       <c r="D3">
         <v>52</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2">
         <v>42</v>
       </c>
-      <c r="G3" s="2">
+      <c r="K3" s="2">
         <v>46</v>
       </c>
-      <c r="H3" s="5">
+      <c r="L3" s="5">
         <v>35</v>
       </c>
-      <c r="J3" s="5">
+      <c r="M3">
+        <v>52</v>
+      </c>
+      <c r="N3">
+        <v>155</v>
+      </c>
+      <c r="O3">
+        <v>54</v>
+      </c>
+      <c r="P3" s="5">
+        <v>44</v>
+      </c>
+      <c r="T3" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -528,20 +1006,42 @@
       <c r="D4" s="5">
         <v>41</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>59</v>
+      </c>
+      <c r="J4">
         <v>99</v>
       </c>
-      <c r="G4" s="2">
+      <c r="K4" s="2">
         <v>39</v>
       </c>
-      <c r="H4" s="5">
+      <c r="L4" s="5">
         <v>35</v>
       </c>
-      <c r="J4">
+      <c r="M4">
+        <v>59</v>
+      </c>
+      <c r="N4" s="2">
+        <v>40</v>
+      </c>
+      <c r="O4" s="5">
+        <v>37</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="T4">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -554,20 +1054,42 @@
       <c r="D5" s="5">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="3">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>54</v>
+      </c>
+      <c r="J5">
         <v>67</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>52</v>
       </c>
-      <c r="H5">
+      <c r="L5" s="2">
         <v>41</v>
       </c>
-      <c r="J5" s="5">
+      <c r="M5">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <v>48</v>
+      </c>
+      <c r="O5" s="5">
+        <v>35</v>
+      </c>
+      <c r="P5" s="2">
+        <v>41</v>
+      </c>
+      <c r="T5" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -580,20 +1102,42 @@
       <c r="D6" s="1">
         <v>110</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="3">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>56</v>
+      </c>
+      <c r="J6">
         <v>72</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>55</v>
       </c>
-      <c r="H6">
+      <c r="L6" s="2">
         <v>34</v>
       </c>
-      <c r="J6">
+      <c r="M6">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>52</v>
+      </c>
+      <c r="O6" s="2">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2">
+        <v>42</v>
+      </c>
+      <c r="T6">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -606,20 +1150,42 @@
       <c r="D7" s="1">
         <v>42</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="3">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3">
+        <v>270</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>75</v>
+      </c>
+      <c r="J7">
         <v>71</v>
       </c>
-      <c r="G7">
+      <c r="K7" s="2">
         <v>44</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>48</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7">
+        <v>75</v>
+      </c>
+      <c r="N7">
+        <v>67</v>
+      </c>
+      <c r="O7">
+        <v>47</v>
+      </c>
+      <c r="P7" s="5">
+        <v>42</v>
+      </c>
+      <c r="T7" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -632,20 +1198,42 @@
       <c r="D8">
         <v>47</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="3">
+        <v>73</v>
+      </c>
+      <c r="F8" s="3">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1">
         <v>134</v>
       </c>
-      <c r="G8" s="1">
+      <c r="K8" s="1">
         <v>93</v>
       </c>
-      <c r="H8" s="1">
+      <c r="L8" s="1">
         <v>98</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
+        <v>63</v>
+      </c>
+      <c r="N8" s="1">
+        <v>83</v>
+      </c>
+      <c r="O8" s="1">
+        <v>86</v>
+      </c>
+      <c r="P8" s="1">
+        <v>188</v>
+      </c>
+      <c r="T8" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -658,20 +1246,42 @@
       <c r="D9">
         <v>59</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="3">
+        <v>92</v>
+      </c>
+      <c r="F9" s="3">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>61</v>
       </c>
-      <c r="G9">
+      <c r="J9">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>65</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>48</v>
       </c>
-      <c r="J9">
+      <c r="M9">
+        <v>61</v>
+      </c>
+      <c r="N9">
+        <v>53</v>
+      </c>
+      <c r="O9">
+        <v>61</v>
+      </c>
+      <c r="P9">
+        <v>77</v>
+      </c>
+      <c r="T9">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -684,21 +1294,45 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="3">
+        <v>85</v>
+      </c>
+      <c r="F10" s="3">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>62</v>
+      </c>
+      <c r="J10">
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>51</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>48</v>
       </c>
-      <c r="J10">
+      <c r="M10">
+        <v>62</v>
+      </c>
+      <c r="N10" s="2">
+        <v>44</v>
+      </c>
+      <c r="O10">
+        <v>52</v>
+      </c>
+      <c r="P10">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="T10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -708,9 +1342,15 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -720,92 +1360,205 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -816,9 +1569,15 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -828,46 +1587,97 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="J23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -875,23 +1685,53 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="J27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -899,22 +1739,52 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -923,21 +1793,32 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -948,11 +1829,19 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -960,30 +1849,3270 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>373</v>
+      </c>
+      <c r="C34" s="3">
+        <v>381</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="J34" s="3">
+        <v>268</v>
+      </c>
+      <c r="K34" s="3">
+        <v>322</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3">
+        <v>336</v>
+      </c>
+      <c r="C35" s="3">
+        <v>374</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3">
+        <v>259</v>
+      </c>
+      <c r="K35" s="3">
+        <v>232</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36">
+        <v>256</v>
+      </c>
+      <c r="K36">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>244</v>
+      </c>
+      <c r="K37">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>363</v>
+      </c>
+      <c r="C38">
+        <v>394</v>
+      </c>
+      <c r="J38">
+        <v>232</v>
+      </c>
+      <c r="K38" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <v>246</v>
+      </c>
+      <c r="K39">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2">
+        <v>195</v>
+      </c>
+      <c r="K40">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" t="s">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ43" s="2"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>129</v>
+      </c>
+      <c r="D44">
+        <v>51</v>
+      </c>
+      <c r="E44">
+        <v>159</v>
+      </c>
+      <c r="F44">
+        <v>338</v>
+      </c>
+      <c r="L44">
+        <v>103</v>
+      </c>
+      <c r="M44">
+        <v>129</v>
+      </c>
+      <c r="N44">
+        <v>154</v>
+      </c>
+      <c r="O44">
+        <v>224</v>
+      </c>
+      <c r="P44">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>74</v>
+      </c>
+      <c r="E45">
+        <v>86</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45</v>
+      </c>
+      <c r="G45" s="3">
+        <v>78</v>
+      </c>
+      <c r="H45" s="2">
+        <v>47</v>
+      </c>
+      <c r="I45" s="2">
+        <v>37</v>
+      </c>
+      <c r="J45" s="9">
+        <f>SUM(B45:I45)</f>
+        <v>450</v>
+      </c>
+      <c r="L45">
+        <v>54</v>
+      </c>
+      <c r="M45" s="2">
+        <v>44</v>
+      </c>
+      <c r="N45" s="2">
+        <v>48</v>
+      </c>
+      <c r="O45">
+        <v>87</v>
+      </c>
+      <c r="P45">
+        <v>67</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>66</v>
+      </c>
+      <c r="R45" s="3">
+        <v>58</v>
+      </c>
+      <c r="S45" s="3">
+        <v>62</v>
+      </c>
+      <c r="T45" s="9">
+        <f>SUM(L45:S45)</f>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>69</v>
+      </c>
+      <c r="D46">
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <v>58</v>
+      </c>
+      <c r="F46" s="2">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>59</v>
+      </c>
+      <c r="H46">
+        <v>53</v>
+      </c>
+      <c r="I46">
+        <v>65</v>
+      </c>
+      <c r="J46">
+        <f>SUM(B46:I46)</f>
+        <v>468</v>
+      </c>
+      <c r="L46">
+        <v>112</v>
+      </c>
+      <c r="M46">
+        <v>64</v>
+      </c>
+      <c r="N46">
+        <v>99</v>
+      </c>
+      <c r="O46">
+        <v>89</v>
+      </c>
+      <c r="P46" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>48</v>
+      </c>
+      <c r="R46">
+        <v>58</v>
+      </c>
+      <c r="S46">
+        <v>64</v>
+      </c>
+      <c r="T46">
+        <f>SUM(L46:S46)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>283</v>
+      </c>
+      <c r="C50">
+        <v>249</v>
+      </c>
+      <c r="D50">
+        <v>244</v>
+      </c>
+      <c r="E50">
+        <v>240</v>
+      </c>
+      <c r="F50">
+        <v>329</v>
+      </c>
+      <c r="G50">
+        <f>SUM(B50:F50)</f>
+        <v>1345</v>
+      </c>
+      <c r="L50">
+        <v>228</v>
+      </c>
+      <c r="M50" s="5">
+        <v>214</v>
+      </c>
+      <c r="N50">
+        <v>239</v>
+      </c>
+      <c r="O50" s="2">
+        <v>207</v>
+      </c>
+      <c r="P50">
+        <v>223</v>
+      </c>
+      <c r="Q50">
+        <f>SUM(L50:P50)</f>
+        <v>1111</v>
+      </c>
+      <c r="W50">
+        <v>288</v>
+      </c>
+      <c r="X50">
+        <v>265</v>
+      </c>
+      <c r="Y50">
+        <v>266</v>
+      </c>
+      <c r="Z50">
+        <v>266</v>
+      </c>
+      <c r="AA50">
+        <v>244</v>
+      </c>
+      <c r="AB50">
+        <f>SUM(W50:AA50)</f>
+        <v>1329</v>
+      </c>
+      <c r="AD50">
+        <v>429</v>
+      </c>
+      <c r="AE50">
+        <v>343</v>
+      </c>
+      <c r="AF50">
+        <v>297</v>
+      </c>
+      <c r="AG50">
+        <v>289</v>
+      </c>
+      <c r="AH50">
+        <v>343</v>
+      </c>
+      <c r="AI50">
+        <f>SUM(AD50:AH50)</f>
+        <v>1701</v>
+      </c>
+      <c r="AK50">
+        <v>255</v>
+      </c>
+      <c r="AL50">
+        <v>229</v>
+      </c>
+      <c r="AM50">
+        <v>244</v>
+      </c>
+      <c r="AN50">
+        <v>248</v>
+      </c>
+      <c r="AO50">
+        <v>202</v>
+      </c>
+      <c r="AP50" s="9">
+        <f>SUM(AK50:AO50)</f>
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>260</v>
+      </c>
+      <c r="C51">
+        <v>256</v>
+      </c>
+      <c r="D51">
+        <v>251</v>
+      </c>
+      <c r="E51">
+        <v>254</v>
+      </c>
+      <c r="F51">
+        <v>240</v>
+      </c>
+      <c r="G51" s="9">
+        <f>SUM(B51:F51)</f>
+        <v>1261</v>
+      </c>
+      <c r="L51">
+        <v>232</v>
+      </c>
+      <c r="M51">
+        <v>227</v>
+      </c>
+      <c r="N51" s="5">
+        <v>183</v>
+      </c>
+      <c r="O51" s="2">
+        <v>215</v>
+      </c>
+      <c r="P51">
+        <v>227</v>
+      </c>
+      <c r="Q51" s="9">
+        <f>SUM(L51:P51)</f>
+        <v>1084</v>
+      </c>
+      <c r="W51">
+        <v>298</v>
+      </c>
+      <c r="X51">
+        <v>270</v>
+      </c>
+      <c r="Y51">
+        <v>261</v>
+      </c>
+      <c r="Z51">
+        <v>277</v>
+      </c>
+      <c r="AA51">
+        <v>241</v>
+      </c>
+      <c r="AB51">
+        <f>SUM(W51:AA51)</f>
+        <v>1347</v>
+      </c>
+      <c r="AD51">
+        <v>288</v>
+      </c>
+      <c r="AE51">
+        <v>364</v>
+      </c>
+      <c r="AF51">
+        <v>297</v>
+      </c>
+      <c r="AG51">
+        <v>264</v>
+      </c>
+      <c r="AH51">
+        <v>276</v>
+      </c>
+      <c r="AI51" s="9">
+        <f>SUM(AD51:AH51)</f>
+        <v>1489</v>
+      </c>
+      <c r="AK51">
+        <v>241</v>
+      </c>
+      <c r="AL51">
+        <v>249</v>
+      </c>
+      <c r="AM51">
+        <v>238</v>
+      </c>
+      <c r="AN51">
+        <v>240</v>
+      </c>
+      <c r="AO51">
+        <v>230</v>
+      </c>
+      <c r="AP51">
+        <f>SUM(AK51:AO51)</f>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M54" t="s">
+        <v>88</v>
+      </c>
+      <c r="N54" t="s">
+        <v>92</v>
+      </c>
+      <c r="O54" t="s">
+        <v>96</v>
+      </c>
+      <c r="P54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" t="s">
+        <v>85</v>
+      </c>
+      <c r="M55" t="s">
+        <v>89</v>
+      </c>
+      <c r="N55" t="s">
+        <v>93</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" t="s">
+        <v>90</v>
+      </c>
+      <c r="N56" t="s">
+        <v>94</v>
+      </c>
+      <c r="O56" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" t="s">
+        <v>91</v>
+      </c>
+      <c r="N57" t="s">
+        <v>95</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P57" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="L60" t="s">
+        <v>124</v>
+      </c>
+      <c r="W60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>224</v>
+      </c>
+      <c r="C62" s="2">
+        <v>203</v>
+      </c>
+      <c r="D62">
+        <v>245</v>
+      </c>
+      <c r="E62">
+        <v>250</v>
+      </c>
+      <c r="F62" s="2">
+        <v>213</v>
+      </c>
+      <c r="G62" s="9">
+        <f>SUM(B62:F62)</f>
+        <v>1135</v>
+      </c>
+      <c r="L62" s="2">
+        <v>215</v>
+      </c>
+      <c r="M62">
+        <v>240</v>
+      </c>
+      <c r="N62">
+        <v>231</v>
+      </c>
+      <c r="O62" s="3">
+        <v>224</v>
+      </c>
+      <c r="P62" s="2">
+        <v>207</v>
+      </c>
+      <c r="Q62" s="9">
+        <f>SUM(L62:P62)</f>
+        <v>1117</v>
+      </c>
+      <c r="W62" s="2">
+        <v>213</v>
+      </c>
+      <c r="X62" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y62">
+        <v>220</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>213</v>
+      </c>
+      <c r="AA62">
+        <v>229</v>
+      </c>
+      <c r="AB62" s="9">
+        <f>SUM(W62:AA62)</f>
+        <v>1069</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>218</v>
+      </c>
+      <c r="AE62">
+        <v>234</v>
+      </c>
+      <c r="AF62">
+        <v>233</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>213</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>203</v>
+      </c>
+      <c r="AI62" s="9">
+        <f>SUM(AD62:AH62)</f>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>223</v>
+      </c>
+      <c r="C63">
+        <v>234</v>
+      </c>
+      <c r="D63" s="2">
+        <v>209</v>
+      </c>
+      <c r="E63">
+        <v>255</v>
+      </c>
+      <c r="F63">
+        <v>258</v>
+      </c>
+      <c r="G63">
+        <f>SUM(B63:F63)</f>
+        <v>1179</v>
+      </c>
+      <c r="L63" s="2">
+        <v>194</v>
+      </c>
+      <c r="M63">
+        <v>250</v>
+      </c>
+      <c r="N63" s="2">
+        <v>219</v>
+      </c>
+      <c r="O63">
+        <v>234</v>
+      </c>
+      <c r="P63" s="3">
+        <v>226</v>
+      </c>
+      <c r="Q63">
+        <f>SUM(L63:P63)</f>
+        <v>1123</v>
+      </c>
+      <c r="W63">
+        <v>229</v>
+      </c>
+      <c r="X63">
+        <v>239</v>
+      </c>
+      <c r="Y63">
+        <v>199</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>205</v>
+      </c>
+      <c r="AB63">
+        <f>SUM(W63:AA63)</f>
+        <v>1089</v>
+      </c>
+      <c r="AD63">
+        <v>284</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF63">
+        <v>237</v>
+      </c>
+      <c r="AG63">
+        <v>238</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>214</v>
+      </c>
+      <c r="AI63">
+        <f>SUM(AD63:AH63)</f>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>75</v>
+      </c>
+      <c r="F68">
+        <v>43</v>
+      </c>
+      <c r="G68">
+        <f>SUM(B68:F68)</f>
+        <v>316</v>
+      </c>
+      <c r="L68">
+        <v>51</v>
+      </c>
+      <c r="M68">
+        <v>54</v>
+      </c>
+      <c r="N68">
+        <v>62</v>
+      </c>
+      <c r="O68">
+        <v>55</v>
+      </c>
+      <c r="P68">
+        <v>59</v>
+      </c>
+      <c r="Q68" s="9">
+        <f>SUM(L68:P68)</f>
+        <v>281</v>
+      </c>
+      <c r="W68">
+        <v>55</v>
+      </c>
+      <c r="X68">
+        <v>47</v>
+      </c>
+      <c r="Y68">
+        <v>68</v>
+      </c>
+      <c r="Z68">
+        <v>55</v>
+      </c>
+      <c r="AA68">
+        <v>44</v>
+      </c>
+      <c r="AB68" s="9">
+        <f>SUM(W68:AA68)</f>
+        <v>269</v>
+      </c>
+      <c r="AD68">
+        <v>49</v>
+      </c>
+      <c r="AE68">
+        <v>52</v>
+      </c>
+      <c r="AF68">
+        <v>70</v>
+      </c>
+      <c r="AG68">
+        <v>55</v>
+      </c>
+      <c r="AH68">
+        <v>60</v>
+      </c>
+      <c r="AI68" s="9">
+        <f>SUM(AD68:AH68)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>93</v>
+      </c>
+      <c r="D69">
+        <v>49</v>
+      </c>
+      <c r="E69">
+        <v>47</v>
+      </c>
+      <c r="F69">
+        <v>61</v>
+      </c>
+      <c r="G69" s="9">
+        <f>SUM(B69:F69)</f>
+        <v>310</v>
+      </c>
+      <c r="L69">
+        <v>75</v>
+      </c>
+      <c r="M69">
+        <v>72</v>
+      </c>
+      <c r="N69">
+        <v>45</v>
+      </c>
+      <c r="O69">
+        <v>75</v>
+      </c>
+      <c r="P69">
+        <v>70</v>
+      </c>
+      <c r="Q69">
+        <f>SUM(L69:P69)</f>
+        <v>337</v>
+      </c>
+      <c r="W69">
+        <v>60</v>
+      </c>
+      <c r="X69">
+        <v>60</v>
+      </c>
+      <c r="Y69">
+        <v>62</v>
+      </c>
+      <c r="Z69">
+        <v>60</v>
+      </c>
+      <c r="AA69">
+        <v>49</v>
+      </c>
+      <c r="AB69">
+        <f>SUM(W69:AA69)</f>
+        <v>291</v>
+      </c>
+      <c r="AD69">
+        <v>57</v>
+      </c>
+      <c r="AE69">
+        <v>67</v>
+      </c>
+      <c r="AF69">
+        <v>60</v>
+      </c>
+      <c r="AG69">
+        <v>79</v>
+      </c>
+      <c r="AH69">
+        <v>70</v>
+      </c>
+      <c r="AI69">
+        <f>SUM(AD69:AH69)</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" t="s">
+        <v>128</v>
+      </c>
+      <c r="W71" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="3">
+        <v>509</v>
+      </c>
+      <c r="C73" s="3">
+        <v>721</v>
+      </c>
+      <c r="D73" s="3">
+        <v>339</v>
+      </c>
+      <c r="E73" s="3">
+        <v>281</v>
+      </c>
+      <c r="G73">
+        <f>SUM(B73:F73)</f>
+        <v>1850</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3">
+        <v>224</v>
+      </c>
+      <c r="M73" s="3">
+        <v>224</v>
+      </c>
+      <c r="N73" s="3">
+        <v>248</v>
+      </c>
+      <c r="O73" s="3">
+        <v>236</v>
+      </c>
+      <c r="Q73" s="9">
+        <f>SUM(L73:P73)</f>
+        <v>932</v>
+      </c>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73">
+        <v>297</v>
+      </c>
+      <c r="X73">
+        <v>292</v>
+      </c>
+      <c r="Y73">
+        <v>245</v>
+      </c>
+      <c r="Z73">
+        <v>295</v>
+      </c>
+      <c r="AB73" s="9">
+        <f>SUM(W73:AA73)</f>
+        <v>1129</v>
+      </c>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3">
+        <v>253</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>259</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>232</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>227</v>
+      </c>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="9">
+        <f>SUM(AD73:AH73)</f>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="3">
+        <v>298</v>
+      </c>
+      <c r="C74" s="3">
+        <v>622</v>
+      </c>
+      <c r="D74" s="3">
+        <v>405</v>
+      </c>
+      <c r="E74" s="3">
+        <v>331</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="9">
+        <f>SUM(B74:F74)</f>
+        <v>1656</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3">
+        <v>248</v>
+      </c>
+      <c r="M74" s="3">
+        <v>271</v>
+      </c>
+      <c r="N74" s="3">
+        <v>249</v>
+      </c>
+      <c r="O74" s="3">
+        <v>217</v>
+      </c>
+      <c r="Q74">
+        <f>SUM(L74:P74)</f>
+        <v>985</v>
+      </c>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74">
+        <v>277</v>
+      </c>
+      <c r="X74">
+        <v>375</v>
+      </c>
+      <c r="Y74">
+        <v>310</v>
+      </c>
+      <c r="Z74">
+        <v>386</v>
+      </c>
+      <c r="AB74">
+        <f>SUM(W74:AA74)</f>
+        <v>1348</v>
+      </c>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3">
+        <v>238</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>298</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>248</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>226</v>
+      </c>
+      <c r="AH74" s="3"/>
+      <c r="AI74">
+        <f>SUM(AD74:AH74)</f>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="W78">
+        <v>213</v>
+      </c>
+      <c r="X78">
+        <v>152</v>
+      </c>
+      <c r="Y78">
+        <v>91</v>
+      </c>
+      <c r="Z78">
+        <v>248</v>
+      </c>
+      <c r="AA78">
+        <v>207</v>
+      </c>
+      <c r="AB78">
+        <f>SUM(W78:AA78)</f>
+        <v>911</v>
+      </c>
+      <c r="AD78">
+        <v>115</v>
+      </c>
+      <c r="AE78">
+        <v>132</v>
+      </c>
+      <c r="AF78">
+        <v>92</v>
+      </c>
+      <c r="AG78">
+        <v>96</v>
+      </c>
+      <c r="AH78">
+        <v>119</v>
+      </c>
+      <c r="AI78" s="9">
+        <f>SUM(AD78:AH78)</f>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>309</v>
+      </c>
+      <c r="C79">
+        <v>130</v>
+      </c>
+      <c r="D79">
+        <v>149</v>
+      </c>
+      <c r="E79">
+        <v>110</v>
+      </c>
+      <c r="F79">
+        <v>35</v>
+      </c>
+      <c r="G79" s="9">
+        <f>SUM(B79:F79)</f>
+        <v>733</v>
+      </c>
+      <c r="L79">
+        <v>85</v>
+      </c>
+      <c r="M79">
+        <v>47</v>
+      </c>
+      <c r="N79">
+        <v>51</v>
+      </c>
+      <c r="O79">
+        <v>48</v>
+      </c>
+      <c r="P79">
+        <v>150</v>
+      </c>
+      <c r="Q79">
+        <f>SUM(L79:P79)</f>
+        <v>381</v>
+      </c>
+      <c r="W79">
+        <v>226</v>
+      </c>
+      <c r="X79">
+        <v>139</v>
+      </c>
+      <c r="Y79">
+        <v>180</v>
+      </c>
+      <c r="Z79">
+        <v>137</v>
+      </c>
+      <c r="AA79">
+        <v>77</v>
+      </c>
+      <c r="AB79" s="9">
+        <f>SUM(W79:AA79)</f>
+        <v>759</v>
+      </c>
+      <c r="AD79">
+        <v>118</v>
+      </c>
+      <c r="AE79">
+        <v>106</v>
+      </c>
+      <c r="AF79">
+        <v>125</v>
+      </c>
+      <c r="AG79">
+        <v>127</v>
+      </c>
+      <c r="AH79">
+        <v>188</v>
+      </c>
+      <c r="AI79">
+        <f>SUM(AD79:AH79)</f>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>107</v>
+      </c>
+      <c r="C80">
+        <v>252</v>
+      </c>
+      <c r="D80">
+        <v>75</v>
+      </c>
+      <c r="E80">
+        <v>252</v>
+      </c>
+      <c r="F80">
+        <v>258</v>
+      </c>
+      <c r="G80">
+        <f>SUM(B80:F80)</f>
+        <v>944</v>
+      </c>
+      <c r="L80">
+        <v>74</v>
+      </c>
+      <c r="M80">
+        <v>60</v>
+      </c>
+      <c r="N80">
+        <v>64</v>
+      </c>
+      <c r="O80">
+        <v>43</v>
+      </c>
+      <c r="P80">
+        <v>52</v>
+      </c>
+      <c r="Q80" s="9">
+        <f>SUM(L80:P80)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>177</v>
+      </c>
+      <c r="C82">
+        <v>108</v>
+      </c>
+      <c r="D82">
+        <v>144</v>
+      </c>
+      <c r="E82">
+        <v>123</v>
+      </c>
+      <c r="F82">
+        <v>74</v>
+      </c>
+      <c r="G82" s="9">
+        <f>SUM(B82:F82)</f>
+        <v>626</v>
+      </c>
+      <c r="L82">
+        <v>77</v>
+      </c>
+      <c r="M82">
+        <v>70</v>
+      </c>
+      <c r="N82">
+        <v>64</v>
+      </c>
+      <c r="O82">
+        <v>73</v>
+      </c>
+      <c r="P82">
+        <v>56</v>
+      </c>
+      <c r="Q82">
+        <f>SUM(L82:P82)</f>
+        <v>340</v>
+      </c>
+      <c r="W82">
+        <v>47</v>
+      </c>
+      <c r="X82">
+        <v>172</v>
+      </c>
+      <c r="Y82">
+        <v>96</v>
+      </c>
+      <c r="Z82">
+        <v>315</v>
+      </c>
+      <c r="AA82">
+        <v>74</v>
+      </c>
+      <c r="AB82" s="9">
+        <f>SUM(W82:AA82)</f>
+        <v>704</v>
+      </c>
+      <c r="AD82">
+        <v>122</v>
+      </c>
+      <c r="AE82">
+        <v>151</v>
+      </c>
+      <c r="AF82">
+        <v>105</v>
+      </c>
+      <c r="AG82">
+        <v>147</v>
+      </c>
+      <c r="AH82">
+        <v>128</v>
+      </c>
+      <c r="AI82" s="9">
+        <f>SUM(AD82:AH82)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>242</v>
+      </c>
+      <c r="C83">
+        <v>78</v>
+      </c>
+      <c r="D83">
+        <v>85</v>
+      </c>
+      <c r="E83">
+        <v>115</v>
+      </c>
+      <c r="F83">
+        <v>271</v>
+      </c>
+      <c r="G83">
+        <f>SUM(B83:F83)</f>
+        <v>791</v>
+      </c>
+      <c r="L83">
+        <v>42</v>
+      </c>
+      <c r="M83">
+        <v>81</v>
+      </c>
+      <c r="N83">
+        <v>70</v>
+      </c>
+      <c r="O83">
+        <v>55</v>
+      </c>
+      <c r="P83">
+        <v>66</v>
+      </c>
+      <c r="Q83" s="9">
+        <f>SUM(L83:P83)</f>
+        <v>314</v>
+      </c>
+      <c r="W83">
+        <v>71</v>
+      </c>
+      <c r="X83">
+        <v>108</v>
+      </c>
+      <c r="Y83">
+        <v>252</v>
+      </c>
+      <c r="Z83">
+        <v>274</v>
+      </c>
+      <c r="AA83">
+        <v>132</v>
+      </c>
+      <c r="AB83">
+        <f>SUM(W83:AA83)</f>
+        <v>837</v>
+      </c>
+      <c r="AD83">
+        <v>138</v>
+      </c>
+      <c r="AE83">
+        <v>154</v>
+      </c>
+      <c r="AF83">
+        <v>177</v>
+      </c>
+      <c r="AG83">
+        <v>96</v>
+      </c>
+      <c r="AH83">
+        <v>142</v>
+      </c>
+      <c r="AI83">
+        <f>SUM(AD83:AH83)</f>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="W86">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD86">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="V87" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="L88" s="5">
+        <v>38</v>
+      </c>
+      <c r="M88">
+        <v>42</v>
+      </c>
+      <c r="N88">
+        <v>44</v>
+      </c>
+      <c r="O88" s="2">
+        <v>41</v>
+      </c>
+      <c r="P88">
+        <v>44</v>
+      </c>
+      <c r="Q88">
+        <v>43</v>
+      </c>
+      <c r="R88">
+        <v>56</v>
+      </c>
+      <c r="S88">
+        <v>47</v>
+      </c>
+      <c r="T88">
+        <v>51</v>
+      </c>
+      <c r="U88" s="2">
+        <v>41</v>
+      </c>
+      <c r="V88">
+        <f>SUM(L88:U88)</f>
+        <v>447</v>
+      </c>
+      <c r="W88">
+        <v>49</v>
+      </c>
+      <c r="X88">
+        <v>62</v>
+      </c>
+      <c r="Y88">
+        <v>51</v>
+      </c>
+      <c r="Z88">
+        <v>50</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB88">
+        <f>SUM(W88:AA88)</f>
+        <v>256</v>
+      </c>
+      <c r="AD88" s="11"/>
+      <c r="AE88" s="11"/>
+      <c r="AF88" s="11"/>
+      <c r="AG88" s="11"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11"/>
+      <c r="AJ88" s="11"/>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="L89" s="2">
+        <v>40</v>
+      </c>
+      <c r="M89">
+        <v>42</v>
+      </c>
+      <c r="N89">
+        <v>47</v>
+      </c>
+      <c r="O89">
+        <v>44</v>
+      </c>
+      <c r="P89" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q89">
+        <v>52</v>
+      </c>
+      <c r="R89">
+        <v>45</v>
+      </c>
+      <c r="S89">
+        <v>47</v>
+      </c>
+      <c r="T89">
+        <v>53</v>
+      </c>
+      <c r="U89">
+        <v>46</v>
+      </c>
+      <c r="V89">
+        <f>SUM(L89:U89)</f>
+        <v>457</v>
+      </c>
+      <c r="W89">
+        <v>47</v>
+      </c>
+      <c r="X89" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>41</v>
+      </c>
+      <c r="Z89">
+        <v>51</v>
+      </c>
+      <c r="AA89">
+        <v>52</v>
+      </c>
+      <c r="AB89">
+        <f>SUM(W89:AA89)</f>
+        <v>232</v>
+      </c>
+      <c r="AD89" s="11"/>
+      <c r="AE89" s="11"/>
+      <c r="AF89" s="11"/>
+      <c r="AG89" s="11"/>
+      <c r="AH89" s="11"/>
+      <c r="AI89" s="11"/>
+      <c r="AJ89" s="11"/>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD90" s="11"/>
+      <c r="AE90" s="11"/>
+      <c r="AF90" s="11"/>
+      <c r="AG90" s="11"/>
+      <c r="AH90" s="11"/>
+      <c r="AI90" s="11"/>
+      <c r="AJ90" s="11"/>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+      <c r="AA91" s="11"/>
+      <c r="AD91" s="11"/>
+      <c r="AE91" s="11"/>
+      <c r="AF91" s="11"/>
+      <c r="AG91" s="11"/>
+      <c r="AH91" s="11"/>
+      <c r="AI91" s="11"/>
+      <c r="AJ91" s="11"/>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="W92" s="5">
+        <v>29</v>
+      </c>
+      <c r="X92" s="5">
+        <v>31</v>
+      </c>
+      <c r="Y92">
+        <v>37</v>
+      </c>
+      <c r="Z92">
+        <v>35</v>
+      </c>
+      <c r="AA92">
+        <v>29</v>
+      </c>
+      <c r="AD92" s="11"/>
+      <c r="AE92" s="11"/>
+      <c r="AF92" s="11"/>
+      <c r="AG92" s="11"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11"/>
+      <c r="AJ92" s="11"/>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD93" s="11"/>
+      <c r="AE93" s="11"/>
+      <c r="AF93" s="11"/>
+      <c r="AG93" s="11"/>
+      <c r="AH93" s="11"/>
+      <c r="AI93" s="11"/>
+      <c r="AJ93" s="11"/>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="L94">
+        <v>41</v>
+      </c>
+      <c r="M94">
+        <v>44</v>
+      </c>
+      <c r="N94">
+        <v>42</v>
+      </c>
+      <c r="O94">
+        <v>50</v>
+      </c>
+      <c r="P94">
+        <v>39</v>
+      </c>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="11"/>
+      <c r="AB94" s="11"/>
+      <c r="AD94" s="11"/>
+      <c r="AE94" s="11"/>
+      <c r="AF94" s="11"/>
+      <c r="AG94" s="11"/>
+      <c r="AH94" s="11"/>
+      <c r="AI94" s="11"/>
+      <c r="AJ94" s="11"/>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="L95">
+        <v>35</v>
+      </c>
+      <c r="M95">
+        <v>28</v>
+      </c>
+      <c r="N95">
+        <v>40</v>
+      </c>
+      <c r="O95">
+        <v>30</v>
+      </c>
+      <c r="P95" s="2">
+        <v>18</v>
+      </c>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+      <c r="AA95" s="11"/>
+      <c r="AB95" s="11"/>
+      <c r="AD95" s="11"/>
+      <c r="AE95" s="11"/>
+      <c r="AF95" s="11"/>
+      <c r="AG95" s="11"/>
+      <c r="AH95" s="11"/>
+      <c r="AI95" s="11"/>
+      <c r="AJ95" s="11"/>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="AD96" s="11"/>
+      <c r="AE96" s="11"/>
+      <c r="AF96" s="11"/>
+      <c r="AG96" s="11"/>
+      <c r="AH96" s="11"/>
+      <c r="AI96" s="11"/>
+      <c r="AJ96" s="11"/>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="11"/>
+      <c r="AD97" s="11"/>
+      <c r="AE97" s="11"/>
+      <c r="AF97" s="11"/>
+      <c r="AG97" s="11"/>
+      <c r="AH97" s="11"/>
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="11"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+      <c r="AA98" s="11"/>
+      <c r="AB98" s="11"/>
+      <c r="AD98" s="11"/>
+      <c r="AE98" s="11"/>
+      <c r="AF98" s="11"/>
+      <c r="AG98" s="11"/>
+      <c r="AH98" s="11"/>
+      <c r="AI98" s="11"/>
+      <c r="AJ98" s="11"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="L100">
+        <v>36</v>
+      </c>
+      <c r="M100">
+        <v>35</v>
+      </c>
+      <c r="N100">
+        <v>32</v>
+      </c>
+      <c r="O100">
+        <v>33</v>
+      </c>
+      <c r="P100">
+        <v>32</v>
+      </c>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="2">
+        <v>47</v>
+      </c>
+      <c r="X100" s="3">
+        <v>56</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>56</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>49</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>55</v>
+      </c>
+      <c r="AB100" s="3"/>
+      <c r="AD100" s="11"/>
+      <c r="AE100" s="11"/>
+      <c r="AF100" s="11"/>
+      <c r="AG100" s="11"/>
+      <c r="AH100" s="11"/>
+      <c r="AI100" s="11"/>
+      <c r="AJ100" s="11"/>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="L101">
+        <v>33</v>
+      </c>
+      <c r="M101">
+        <v>30</v>
+      </c>
+      <c r="N101">
+        <v>42</v>
+      </c>
+      <c r="O101">
+        <v>36</v>
+      </c>
+      <c r="P101">
+        <v>35</v>
+      </c>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3">
+        <v>45</v>
+      </c>
+      <c r="X101" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>48</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>46</v>
+      </c>
+      <c r="AB101" s="3"/>
+      <c r="AD101" s="11"/>
+      <c r="AE101" s="11"/>
+      <c r="AF101" s="11"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="11"/>
+      <c r="AI101" s="11"/>
+      <c r="AJ101" s="11"/>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2">
+        <v>35</v>
+      </c>
+      <c r="C103">
+        <v>71</v>
+      </c>
+      <c r="D103">
+        <v>55</v>
+      </c>
+      <c r="E103">
+        <v>58</v>
+      </c>
+      <c r="F103">
+        <v>47</v>
+      </c>
+      <c r="G103">
+        <f>SUM(B103:F103)</f>
+        <v>266</v>
+      </c>
+      <c r="L103">
+        <v>56</v>
+      </c>
+      <c r="M103">
+        <v>66</v>
+      </c>
+      <c r="N103">
+        <v>57</v>
+      </c>
+      <c r="O103" s="2">
+        <v>54</v>
+      </c>
+      <c r="P103">
+        <v>57</v>
+      </c>
+      <c r="W103">
+        <v>54</v>
+      </c>
+      <c r="X103">
+        <v>59</v>
+      </c>
+      <c r="Y103">
+        <v>46</v>
+      </c>
+      <c r="Z103">
+        <v>52</v>
+      </c>
+      <c r="AA103">
+        <v>55</v>
+      </c>
+      <c r="AD103">
+        <v>33</v>
+      </c>
+      <c r="AE103">
+        <v>30</v>
+      </c>
+      <c r="AF103">
+        <v>35</v>
+      </c>
+      <c r="AG103" s="2">
+        <v>26</v>
+      </c>
+      <c r="AH103">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>43</v>
+      </c>
+      <c r="C104">
+        <v>48</v>
+      </c>
+      <c r="D104">
+        <v>36</v>
+      </c>
+      <c r="E104">
+        <v>43</v>
+      </c>
+      <c r="F104">
+        <v>52</v>
+      </c>
+      <c r="G104">
+        <f>SUM(B104:F104)</f>
+        <v>222</v>
+      </c>
+      <c r="L104">
+        <v>96</v>
+      </c>
+      <c r="M104">
+        <v>78</v>
+      </c>
+      <c r="N104">
+        <v>69</v>
+      </c>
+      <c r="O104">
+        <v>78</v>
+      </c>
+      <c r="P104">
+        <v>60</v>
+      </c>
+      <c r="W104">
+        <v>47</v>
+      </c>
+      <c r="X104">
+        <v>53</v>
+      </c>
+      <c r="Y104">
+        <v>48</v>
+      </c>
+      <c r="Z104">
+        <v>39</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD104">
+        <v>39</v>
+      </c>
+      <c r="AE104">
+        <v>39</v>
+      </c>
+      <c r="AF104" s="2">
+        <v>25</v>
+      </c>
+      <c r="AG104">
+        <v>32</v>
+      </c>
+      <c r="AH104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="L106" s="2">
+        <v>44</v>
+      </c>
+      <c r="M106">
+        <v>55</v>
+      </c>
+      <c r="N106">
+        <v>47</v>
+      </c>
+      <c r="O106">
+        <v>48</v>
+      </c>
+      <c r="P106">
+        <v>50</v>
+      </c>
+      <c r="W106">
+        <v>38</v>
+      </c>
+      <c r="X106">
+        <v>38</v>
+      </c>
+      <c r="Y106" s="2">
+        <v>31</v>
+      </c>
+      <c r="Z106">
+        <v>44</v>
+      </c>
+      <c r="AA106">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="L107">
+        <v>57</v>
+      </c>
+      <c r="M107">
+        <v>52</v>
+      </c>
+      <c r="N107">
+        <v>49</v>
+      </c>
+      <c r="O107">
+        <v>56</v>
+      </c>
+      <c r="P107">
+        <v>52</v>
+      </c>
+      <c r="W107">
+        <v>52</v>
+      </c>
+      <c r="X107">
+        <v>65</v>
+      </c>
+      <c r="Y107">
+        <v>41</v>
+      </c>
+      <c r="Z107">
+        <v>72</v>
+      </c>
+      <c r="AA107">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="11"/>
+      <c r="V109" s="11"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="11"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="11"/>
+      <c r="AA109" s="11"/>
+      <c r="AB109" s="11"/>
+      <c r="AC109" s="11"/>
+      <c r="AD109" s="11"/>
+      <c r="AE109" s="11"/>
+      <c r="AF109" s="11"/>
+      <c r="AG109" s="11"/>
+      <c r="AH109" s="11"/>
+      <c r="AI109" s="11"/>
+      <c r="AJ109" s="11"/>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="11"/>
+      <c r="V110" s="11"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="11"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="11"/>
+      <c r="AA110" s="11"/>
+      <c r="AB110" s="11"/>
+      <c r="AC110" s="11"/>
+      <c r="AD110" s="11"/>
+      <c r="AE110" s="11"/>
+      <c r="AF110" s="11"/>
+      <c r="AG110" s="11"/>
+      <c r="AH110" s="11"/>
+      <c r="AI110" s="11"/>
+      <c r="AJ110" s="11"/>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112">
+        <v>55</v>
+      </c>
+      <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
+        <v>50</v>
+      </c>
+      <c r="E112">
+        <v>46</v>
+      </c>
+      <c r="F112">
+        <v>42</v>
+      </c>
+      <c r="G112">
+        <f>SUM(B112:F112)</f>
+        <v>303</v>
+      </c>
+      <c r="L112">
+        <v>52</v>
+      </c>
+      <c r="M112" s="2">
+        <v>46</v>
+      </c>
+      <c r="N112">
+        <v>61</v>
+      </c>
+      <c r="O112">
+        <v>71</v>
+      </c>
+      <c r="P112">
+        <v>48</v>
+      </c>
+      <c r="W112">
+        <v>66</v>
+      </c>
+      <c r="X112">
+        <v>51</v>
+      </c>
+      <c r="Y112">
+        <v>45</v>
+      </c>
+      <c r="Z112" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA112">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>73</v>
+      </c>
+      <c r="C113">
+        <v>53</v>
+      </c>
+      <c r="D113">
+        <v>106</v>
+      </c>
+      <c r="E113">
+        <v>66</v>
+      </c>
+      <c r="F113">
+        <v>67</v>
+      </c>
+      <c r="G113">
+        <f>SUM(B113:F113)</f>
+        <v>365</v>
+      </c>
+      <c r="L113">
+        <v>56</v>
+      </c>
+      <c r="M113">
+        <v>76</v>
+      </c>
+      <c r="N113">
+        <v>49</v>
+      </c>
+      <c r="O113">
+        <v>76</v>
+      </c>
+      <c r="P113">
+        <v>50</v>
+      </c>
+      <c r="W113">
+        <v>56</v>
+      </c>
+      <c r="X113">
+        <v>50</v>
+      </c>
+      <c r="Y113">
+        <v>44</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA113">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="L115">
+        <v>58</v>
+      </c>
+      <c r="M115">
+        <v>46</v>
+      </c>
+      <c r="N115" s="2">
+        <v>41</v>
+      </c>
+      <c r="O115">
+        <v>47</v>
+      </c>
+      <c r="P115">
+        <v>48</v>
+      </c>
+      <c r="W115">
+        <v>46</v>
+      </c>
+      <c r="X115">
+        <v>44</v>
+      </c>
+      <c r="Y115">
+        <v>42</v>
+      </c>
+      <c r="Z115">
+        <v>50</v>
+      </c>
+      <c r="AA115">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="L116">
+        <v>51</v>
+      </c>
+      <c r="M116">
+        <v>48</v>
+      </c>
+      <c r="N116">
+        <v>43</v>
+      </c>
+      <c r="O116">
+        <v>50</v>
+      </c>
+      <c r="P116">
+        <v>53</v>
+      </c>
+      <c r="W116" s="2">
+        <v>34</v>
+      </c>
+      <c r="X116">
+        <v>41</v>
+      </c>
+      <c r="Y116">
+        <v>40</v>
+      </c>
+      <c r="Z116">
+        <v>40</v>
+      </c>
+      <c r="AA116">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118">
+        <v>62</v>
+      </c>
+      <c r="C118">
+        <v>52</v>
+      </c>
+      <c r="D118">
+        <v>48</v>
+      </c>
+      <c r="E118">
+        <v>49</v>
+      </c>
+      <c r="F118">
+        <v>50</v>
+      </c>
+      <c r="G118">
+        <f>SUM(B118:F118)</f>
+        <v>261</v>
+      </c>
+      <c r="L118">
+        <v>46</v>
+      </c>
+      <c r="M118">
+        <v>45</v>
+      </c>
+      <c r="N118">
+        <v>39</v>
+      </c>
+      <c r="O118">
+        <v>42</v>
+      </c>
+      <c r="P118">
+        <v>81</v>
+      </c>
+      <c r="W118">
+        <v>56</v>
+      </c>
+      <c r="X118">
+        <v>56</v>
+      </c>
+      <c r="Y118">
+        <v>56</v>
+      </c>
+      <c r="Z118">
+        <v>56</v>
+      </c>
+      <c r="AA118" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD118">
+        <v>73</v>
+      </c>
+      <c r="AE118">
+        <v>64</v>
+      </c>
+      <c r="AF118">
+        <v>91</v>
+      </c>
+      <c r="AG118">
+        <v>83</v>
+      </c>
+      <c r="AH118">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>58</v>
+      </c>
+      <c r="C119">
+        <v>51</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+      <c r="E119">
+        <v>55</v>
+      </c>
+      <c r="F119">
+        <v>61</v>
+      </c>
+      <c r="G119">
+        <f>SUM(B119:F119)</f>
+        <v>275</v>
+      </c>
+      <c r="L119">
+        <v>53</v>
+      </c>
+      <c r="M119">
+        <v>34</v>
+      </c>
+      <c r="N119">
+        <v>53</v>
+      </c>
+      <c r="O119" s="2">
+        <v>32</v>
+      </c>
+      <c r="P119">
+        <v>36</v>
+      </c>
+      <c r="W119">
+        <v>214</v>
+      </c>
+      <c r="X119">
+        <v>61</v>
+      </c>
+      <c r="Y119">
+        <v>114</v>
+      </c>
+      <c r="Z119">
+        <v>57</v>
+      </c>
+      <c r="AA119">
+        <v>114</v>
+      </c>
+      <c r="AD119">
+        <v>58</v>
+      </c>
+      <c r="AE119">
+        <v>96</v>
+      </c>
+      <c r="AF119" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG119">
+        <v>90</v>
+      </c>
+      <c r="AH119">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="L121">
+        <v>151</v>
+      </c>
+      <c r="M121">
+        <v>47</v>
+      </c>
+      <c r="N121">
+        <v>53</v>
+      </c>
+      <c r="O121">
+        <v>57</v>
+      </c>
+      <c r="P121">
+        <v>49</v>
+      </c>
+      <c r="W121">
+        <v>59</v>
+      </c>
+      <c r="X121">
+        <v>44</v>
+      </c>
+      <c r="Y121">
+        <v>37</v>
+      </c>
+      <c r="Z121">
+        <v>39</v>
+      </c>
+      <c r="AA121">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="L122" s="2">
+        <v>46</v>
+      </c>
+      <c r="M122">
+        <v>49</v>
+      </c>
+      <c r="N122">
+        <v>53</v>
+      </c>
+      <c r="O122">
+        <v>58</v>
+      </c>
+      <c r="P122">
+        <v>67</v>
+      </c>
+      <c r="W122">
+        <v>48</v>
+      </c>
+      <c r="X122">
+        <v>41</v>
+      </c>
+      <c r="Y122" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z122">
+        <v>54</v>
+      </c>
+      <c r="AA122">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="L124">
+        <v>40</v>
+      </c>
+      <c r="M124">
+        <v>33</v>
+      </c>
+      <c r="N124">
+        <v>37</v>
+      </c>
+      <c r="O124">
+        <v>31</v>
+      </c>
+      <c r="P124">
+        <v>43</v>
+      </c>
+      <c r="W124">
+        <v>21</v>
+      </c>
+      <c r="X124">
+        <v>23</v>
+      </c>
+      <c r="Y124">
+        <v>23</v>
+      </c>
+      <c r="Z124">
+        <v>23</v>
+      </c>
+      <c r="AA124">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="L125">
+        <v>36</v>
+      </c>
+      <c r="M125">
+        <v>35</v>
+      </c>
+      <c r="N125" s="2">
+        <v>31</v>
+      </c>
+      <c r="O125">
+        <v>42</v>
+      </c>
+      <c r="P125">
+        <v>46</v>
+      </c>
+      <c r="W125">
+        <v>19</v>
+      </c>
+      <c r="X125">
+        <v>29</v>
+      </c>
+      <c r="Y125">
+        <v>15</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA125">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="U127" s="11"/>
+      <c r="V127" s="11"/>
+      <c r="W127" s="11"/>
+      <c r="X127" s="11"/>
+      <c r="Y127" s="11"/>
+      <c r="Z127" s="11"/>
+      <c r="AA127" s="11"/>
+      <c r="AB127" s="11"/>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="11"/>
+      <c r="U128" s="11"/>
+      <c r="V128" s="11"/>
+      <c r="W128" s="11"/>
+      <c r="X128" s="11"/>
+      <c r="Y128" s="11"/>
+      <c r="Z128" s="11"/>
+      <c r="AA128" s="11"/>
+      <c r="AB128" s="11"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="L130">
+        <v>32</v>
+      </c>
+      <c r="M130">
+        <v>25</v>
+      </c>
+      <c r="N130">
+        <v>28</v>
+      </c>
+      <c r="O130">
+        <v>34</v>
+      </c>
+      <c r="P130">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="L131">
+        <v>28</v>
+      </c>
+      <c r="M131">
+        <v>36</v>
+      </c>
+      <c r="N131">
+        <v>36</v>
+      </c>
+      <c r="O131">
+        <v>28</v>
+      </c>
+      <c r="P131" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="3">
+        <v>41</v>
+      </c>
+      <c r="C134" s="3">
+        <v>147</v>
+      </c>
+      <c r="D134" s="3">
+        <v>308</v>
+      </c>
+      <c r="E134" s="2">
+        <v>39</v>
+      </c>
+      <c r="F134" s="3">
+        <v>77</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="L134">
+        <v>61</v>
+      </c>
+      <c r="M134">
+        <v>59</v>
+      </c>
+      <c r="N134" s="2">
+        <v>48</v>
+      </c>
+      <c r="O134">
+        <v>51</v>
+      </c>
+      <c r="P134">
+        <v>54</v>
+      </c>
+      <c r="W134" s="2">
+        <v>44</v>
+      </c>
+      <c r="X134">
+        <v>47</v>
+      </c>
+      <c r="Y134">
+        <v>44</v>
+      </c>
+      <c r="Z134">
+        <v>54</v>
+      </c>
+      <c r="AA134">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
